--- a/API_Test/Test_Case/ApiCase.xlsx
+++ b/API_Test/Test_Case/ApiCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LocalGit\github\QiuW\API_Test\Test_Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\慧逐天下\项目接口自动化\yunzhihetong\API_Test\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34941D48-F432-48EC-B0F2-A52F41927E6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDA5124-C30A-4AA2-8FD9-521C5273F8FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="填写说明（必看）" sheetId="4" r:id="rId1"/>
@@ -2043,24 +2043,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1：在100%确认sql语句的执行结果（字符串）包含在接口响应中时可写入sql语句，填写的目的是增加一层数据库表的判断
-2：如果sql的执行结果为空，则判断无效
-3：一定要清楚sql语句是否可执行，执行的结果是什么，建议执行结果取一个关键字段用于判断即可
-4：数据库连接信息要根据项目实际情况填写
-5：如果要判断多个表的数据信息，sql语句之间换行即可</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：主要用于判断接口返回的层级信息，加强断言的准确性
-2：如果需要多个JsonPath判断，JsonPath语句之间换行即可</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2243,6 +2230,18 @@
       <t>==云南省外</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：填写的目的是在接口执行后增加一层数据库表的判断
+2：如果sql的执行结果为空，则判断无效
+3：一定要清楚sql语句是否可执行，执行的结果是什么，建议执行结果取一个关键字段用于判断即可
+4：数据库连接信息要根据项目实际情况填写
+5：如果要判断多个表的数据信息，多个sql语句之间换行即可</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于判断JSON层级字段对应的值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2914,9 +2913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476F41BD-C7C0-4F98-8814-33BE98DDFDA5}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2935,7 +2934,7 @@
         <v>131</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>129</v>
@@ -2999,7 +2998,7 @@
         <v>165</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>146</v>
@@ -3013,7 +3012,7 @@
         <v>143</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -3025,7 +3024,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -3037,7 +3036,7 @@
         <v>145</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -3049,38 +3048,38 @@
         <v>150</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>268</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>281</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3094,7 +3093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B99FD8B-C9AA-44F8-9FDD-1170A2A22564}">
   <dimension ref="A1:M180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
@@ -3180,10 +3179,10 @@
         <v>147</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L2" s="37"/>
     </row>
@@ -3215,7 +3214,7 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="37" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="36" x14ac:dyDescent="0.25">
@@ -5966,90 +5965,90 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -6074,25 +6073,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>294</v>
-      </c>
       <c r="E1" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>288</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6100,19 +6099,19 @@
         <v>269</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>296</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>298</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>270</v>

--- a/API_Test/Test_Case/ApiCase.xlsx
+++ b/API_Test/Test_Case/ApiCase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\慧逐天下\项目接口自动化\yunzhihetong\API_Test\Test_Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LocalGit\github\QiuW\API_Test\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDA5124-C30A-4AA2-8FD9-521C5273F8FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE7DAA3-ED1A-44BE-9527-5F7043A91D53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="填写说明（必看）" sheetId="4" r:id="rId1"/>
@@ -181,6 +181,58 @@
         </r>
       </text>
     </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{5822FB36-AFE5-4895-93B3-B95B6AC929F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>qiuwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+选填，增加断言的准确性</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{22C55926-DF25-43A3-A856-64D3FC4F0D0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>qiuwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+选填，增加断言的准确性</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -348,7 +400,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="342">
   <si>
     <t>用例编号</t>
   </si>
@@ -1171,13 +1223,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>后缀
-_H:优先级高
-_M：优先级中等
-_L:优先级低</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>缺陷排查时以优先级排查案例</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1191,10 +1236,6 @@
   </si>
   <si>
     <t>接口说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口属于增删查改哪一类</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1262,61 +1303,6 @@
   <si>
     <t>"msg":"success"</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="STKaiti"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键值间不能有空格，如{"companyCode": "C01215"}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="STKaiti"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2：键值对间可以换行可以有空格
-3：键对应的值为空时，用""表示，不能用null，如{"companyCode":null}→{"companyCode":""}
-4：严格按照JSON格式输入</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1：接口响应文本中包含的字符串
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="STKaiti"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2：键值键不能有空格，响应文本前后不能有空格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="STKaiti"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-3：如果要判断多个字符串包含在响应文本中，则多个字符串换行填写</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>会将空格当成空字符串处理，导致断言失败</t>
@@ -2102,26 +2088,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>清理测试数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载测试数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel文件不能修改内容：文件名，sheet名，列名，如果需要修改优化需要调整脚本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into Student values('08' , 'tester01' , '1990-01-01' , '男');</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DELETE from Student where sid='08';</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into Student values('09' , 'tester02' , '1990-01-01' , '男');</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2156,33 +2126,6 @@
   <si>
     <t>insert into Student values('17' , 'tester10' , '1990-01-01' , '男');</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE from Student where sid='09';</t>
-  </si>
-  <si>
-    <t>DELETE from Student where sid='10';</t>
-  </si>
-  <si>
-    <t>DELETE from Student where sid='11';</t>
-  </si>
-  <si>
-    <t>DELETE from Student where sid='12';</t>
-  </si>
-  <si>
-    <t>DELETE from Student where sid='13';</t>
-  </si>
-  <si>
-    <t>DELETE from Student where sid='14';</t>
-  </si>
-  <si>
-    <t>DELETE from Student where sid='15';</t>
-  </si>
-  <si>
-    <t>DELETE from Student where sid='16';</t>
-  </si>
-  <si>
-    <t>DELETE from Student where sid='17';</t>
   </si>
   <si>
     <t>select sname from student where sid ='04';==liyun
@@ -2232,16 +2175,226 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1：填写的目的是在接口执行后增加一层数据库表的判断
+    <r>
+      <t xml:space="preserve">1：接口响应文本中包含的字符串
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2：键值键不能有空格，响应文本前后不能有空格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3：如果要判断多个字符串包含在响应文本中，则多个字符串换行填写</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前言
+Excel文件不能修改内容：文件名，sheet名，列名，如果需要修改优化需要调整脚本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例汇总</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：主要用于判断接口返回的层级信息，加强断言的准确性
+2：如果需要多个JsonPath判断，JsonPath语句之间换行即可
+3：学习推荐https://zhuanlan.zhihu.com/p/45309002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载测试数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理测试数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：测试结束后，清理测试数据
+2：一条delete语句书写一行，确保语句正确</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果接口案例需要用到数据库，则此sheet必填，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2：若填写错误，在执行脚本时会报连接错误</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀
+_H：优先级高
+_M：优先级中等
+_L：优先级低</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口作用属于增删查改哪一类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键值间不能有空格，如{"companyCode":  "C01215"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2：键值对间可以换行可以有空格
+3：键对应的值为空时，用" "表示，不能用null，如{"companyCode":null}→{"companyCode":""}
+4：严格按照JSON格式输入</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：填写的目的是在接口执行后，增加一层数据库表的判断
 2：如果sql的执行结果为空，则判断无效
-3：一定要清楚sql语句是否可执行，执行的结果是什么，建议执行结果取一个关键字段用于判断即可
-4：数据库连接信息要根据项目实际情况填写
-5：如果要判断多个表的数据信息，多个sql语句之间换行即可</t>
+3：一定要清楚sql语句是否可执行，执行的结果是什么，如执行修改接口后，检查数据库表对应的数据是否修改。
+4：数据库连接信息要根据项目实际情况填写，切勿写成生产环境
+5：如果要判断多个表的数据信息，则编写多个sql语句，sql语句之间换行即可</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>主要用于判断JSON层级字段对应的值</t>
+    <t>如果不写则不执行insert操作</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql列无数据则不执行sql判断</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonPath列无数据则不执行层级判断</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：如果测试执行前需要在数据库中准备测试数据，可在【加载数据】列写入insert语句
+2：一条insert语句书写一行，确保语句正确
+3：测试数据一定要有特殊标识，便于后期清理（如name以AutoTest开头）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sql_Assert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonPath_Assert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE from Student where sname ='tester01';</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE from Student where sname ='tester02';</t>
+  </si>
+  <si>
+    <t>DELETE from Student where sname ='tester03';</t>
+  </si>
+  <si>
+    <t>DELETE from Student where sname ='tester04';</t>
+  </si>
+  <si>
+    <t>DELETE from Student where sname ='tester05';</t>
+  </si>
+  <si>
+    <t>DELETE from Student where sname ='tester06';</t>
+  </si>
+  <si>
+    <t>DELETE from Student where sname ='tester07';</t>
+  </si>
+  <si>
+    <t>DELETE from Student where sname ='tester08';</t>
+  </si>
+  <si>
+    <t>DELETE from Student where sname ='tester09';</t>
+  </si>
+  <si>
+    <t>DELETE from Student where sname ='tester10';</t>
+  </si>
+  <si>
+    <t>此处有个bug，Excel表中清除数据要整行清除，不能只清除内容，否则代码处理报错</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert_sql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete_sql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2320,12 +2473,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="STKaiti"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
@@ -2350,13 +2497,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="STKaiti"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2422,16 +2562,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="STKaiti"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="STKaiti"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2449,7 +2606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2479,8 +2636,23 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2489,7 +2661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2511,16 +2683,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2529,16 +2695,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2553,59 +2713,98 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2911,178 +3110,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476F41BD-C7C0-4F98-8814-33BE98DDFDA5}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="59.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="27"/>
+    <col min="2" max="2" width="17.21875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="59.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="C4" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C5" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="D5" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C6" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="C7" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" ht="78.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="C8" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>150</v>
+      <c r="D9" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>276</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>299</v>
-      </c>
+    </row>
+    <row r="14" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3095,7 +3398,7 @@
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3107,48 +3410,49 @@
     <col min="6" max="6" width="27.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="45.6640625" style="6" customWidth="1"/>
     <col min="8" max="8" width="15.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" style="7" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="14.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="2" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:13" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="19"/>
+      <c r="I1" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="26"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="96" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3166,25 +3470,25 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="L2" s="37"/>
+        <v>303</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3210,11 +3514,11 @@
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="37" t="s">
-        <v>322</v>
+      <c r="K3" s="25" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="36" x14ac:dyDescent="0.25">
@@ -3241,7 +3545,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -3269,7 +3573,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -3297,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -3325,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -3353,7 +3657,7 @@
         <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -3377,13 +3681,13 @@
         <v>31</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -3413,7 +3717,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="96" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -3430,8 +3734,8 @@
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>164</v>
+      <c r="G11" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>3</v>
@@ -3453,7 +3757,7 @@
         <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>102</v>
@@ -3465,7 +3769,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -3493,7 +3797,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -3518,8 +3822,8 @@
       <c r="H14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>161</v>
+      <c r="I14" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -3577,7 +3881,7 @@
         <v>57</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -3603,7 +3907,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -3631,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -3661,7 +3965,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -3689,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -3771,7 +4075,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -3799,7 +4103,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J24" s="1"/>
     </row>
@@ -3827,7 +4131,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -3855,521 +4159,521 @@
         <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="G27" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="G28" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B44" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="H44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -4378,31 +4682,31 @@
     </row>
     <row r="45" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="11" t="s">
-        <v>246</v>
+      <c r="I45" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -5953,8 +6257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59007430-32C8-4284-89F5-2CCE9E654009}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5964,96 +6268,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="B7" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B9" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="B10" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>319</v>
+      <c r="B11" s="22" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6062,59 +6367,59 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="20.77734375" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="15"/>
+    <col min="1" max="7" width="20.77734375" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="F2" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>270</v>
+      <c r="G2" s="13" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6127,9 +6432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1C8817-9EE0-407E-B8C8-1FD556AA7CDC}">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6141,47 +6446,47 @@
     <col min="6" max="6" width="27.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="45.6640625" style="6" customWidth="1"/>
     <col min="8" max="8" width="15.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" style="7" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.21875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="L1" s="19"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6199,23 +6504,23 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>277</v>
+        <v>275</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.25">
@@ -6242,7 +6547,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -6270,7 +6575,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -6298,7 +6603,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J5" s="1"/>
     </row>

--- a/API_Test/Test_Case/ApiCase.xlsx
+++ b/API_Test/Test_Case/ApiCase.xlsx
@@ -8,23 +8,93 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LocalGit\github\QiuW\API_Test\Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F944B44C-D390-4946-A0A6-7F2456C7E3B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C429A5C-9603-474B-BD14-4481D327C47E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="填写说明（必看）" sheetId="4" r:id="rId1"/>
-    <sheet name="案例汇总" sheetId="2" r:id="rId2"/>
-    <sheet name="初始化" sheetId="8" r:id="rId3"/>
-    <sheet name="数据库" sheetId="3" r:id="rId4"/>
-    <sheet name="调试" sheetId="7" r:id="rId5"/>
-    <sheet name="模板" sheetId="10" r:id="rId6"/>
+    <sheet name="execute" sheetId="11" r:id="rId2"/>
+    <sheet name="案例汇总" sheetId="2" r:id="rId3"/>
+    <sheet name="初始化" sheetId="8" r:id="rId4"/>
+    <sheet name="数据库" sheetId="3" r:id="rId5"/>
+    <sheet name="调试" sheetId="7" r:id="rId6"/>
+    <sheet name="模板" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>qiuwei</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{220265BB-D783-4EAC-B206-D08B36D746A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>qiuwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{26884029-B29F-4EB7-88A0-CF1EDC6EA581}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>qiuwei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="STXinwei"/>
+            <charset val="134"/>
+          </rPr>
+          <t>填写脚本将执行的sheet页（案例集），脚本一次只会执行一个sheet</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>qiuwei</author>
@@ -238,7 +308,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>qiuwei</author>
@@ -452,7 +522,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>qiuwei</author>
@@ -667,7 +737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="451">
   <si>
     <t>用例编号</t>
   </si>
@@ -2335,10 +2405,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>insert into Student values('10' , 'tester03' , '1990-01-01' , '男');</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>select sname from student where sid ='04';==liyun
 select sname from student where sid ='06';==吴兰</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2555,9 +2621,6 @@
     <t>DELETE from Student where sname ='tester02';</t>
   </si>
   <si>
-    <t>DELETE from Student where sname ='tester03';</t>
-  </si>
-  <si>
     <t>此处有个bug，Excel表中清除数据要整行清除，不能只清除内容，否则代码处理报错</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2604,15 +2667,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"page":1,"size":20,"companyName":""}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>通过承运商名字查询</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"page":1,"size":10,"companyName":"张小凡"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2644,10 +2699,6 @@
 "companyCode"
 "siteName"</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务单据号重复，接口提示错误</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2882,10 +2933,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>承运商为空，接口提示错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>承运商编号不能为空
 "code":1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2923,10 +2970,6 @@
   <si>
     <t>否</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址信息不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TC_002_H</t>
@@ -3114,12 +3157,491 @@
 total</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>委托管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通过委托单号查询 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过委托方查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托发布时校验业务单据号重复（clientBillNum）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托发布时校验承运商字段必填，接口提示错误（orientList）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-web.wind56.com/wind56apis/operator/TspPtMissionM/selectByMap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "missionId":"CQWT21041400193"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "missionId":"",
+    "clientCompanyName":"成都刚贸有限责任公司"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "transBillId":"CQYD21041400190"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过运单号查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg":"success"
+"clientCompanyName":"成都刚贸有限责任公司"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg":"success"
+"transBillId":"CQYD21041400190"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过承运商查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "carrierCompanyName":"张小凡"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg":"success"
+"carrierCompanyName":"张小凡"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过委托单状态查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "missionStatus":"10"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "page":1,
+    "size":10,
+    "search":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "page":1,
+    "size":10
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "companyCode":"C00001"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "page":1,
+    "size":20,
+    "companyName":""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg":"success"
+"missionStatusName":"新增"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg":"success"
+贵州省-贵阳市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "carrierCompanyName":"",
+    "missionStatus":"",
+    "beginSiteProvince":"贵州省-贵阳市"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过起运地查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过目的地查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "carrierCompanyName":"",
+    "missionStatus":"",
+    "beginSiteProvince":"",
+    "endSiteProvince":"云南省-昆明市"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg":"success"
+云南省-昆明市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "carrierCompanyName":"",
+    "missionStatus":"",
+    "beginSiteProvince":"",
+    "endSiteProvince":"",
+    "beginSiteAddr":"",
+    "businessUserName":"平台方1"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过客服查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg":"success"
+平台方1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过业务类型查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "businessType":"RPT001_002"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg":"success"
+"businessType":"RPT001_002"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过委托联系人查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "clientCompanyUserName":"邓江"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg":"success"
+"clientCompanyUserName":"邓江"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_01_H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_02_H</t>
+  </si>
+  <si>
+    <t>TC_03_H</t>
+  </si>
+  <si>
+    <t>TC_04_H</t>
+  </si>
+  <si>
+    <t>TC_05_H</t>
+  </si>
+  <si>
+    <t>TC_06_H</t>
+  </si>
+  <si>
+    <t>TC_07_H</t>
+  </si>
+  <si>
+    <t>TC_08_H</t>
+  </si>
+  <si>
+    <t>TC_09_H</t>
+  </si>
+  <si>
+    <t>TC_10_H</t>
+  </si>
+  <si>
+    <t>TC_11_H</t>
+  </si>
+  <si>
+    <t>TC_12_H</t>
+  </si>
+  <si>
+    <t>TC_13_H</t>
+  </si>
+  <si>
+    <t>TC_14_H</t>
+  </si>
+  <si>
+    <t>TC_15_H</t>
+  </si>
+  <si>
+    <t>TC_16_H</t>
+  </si>
+  <si>
+    <t>TC_17_H</t>
+  </si>
+  <si>
+    <t>TC_18_H</t>
+  </si>
+  <si>
+    <t>TC_19_H</t>
+  </si>
+  <si>
+    <t>TC_20_H</t>
+  </si>
+  <si>
+    <t>TC_21_H</t>
+  </si>
+  <si>
+    <t>单条件委托查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两条件条件委托查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "configType":"10-001"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"missionId":"CQWT21041400193"
+"total":1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "missionId":"CQWT21041400193",
+    "clientCompanyName":"成都刚贸有限责任公司"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "clientCompanyName":"成都刚贸有限责任公司",
+    "missionStatus":"54"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托单号+委托方查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托方+委托单状态查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"clientCompanyName":"成都刚贸有限责任公司"
+"missionStatus":"54"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托方+委托联系人查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "clientCompanyName":"成都刚贸有限责任公司",
+    "clientCompanyUserName":"邓江"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientCompanyName":"成都刚贸有限责任公司"
+"clientCompanyUserName":"邓江"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托方+委托联系人+起运地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "clientCompanyName":"成都刚贸有限责任公司",
+    "clientCompanyUserName":"邓江",
+    "beginSiteProvince":"浙江省-宁波市"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托方+委托联系人+起运地+状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "clientCompanyName":"成都刚贸有限责任公司",
+    "clientCompanyUserName":"邓江",
+    "beginSiteProvince":"",
+    "missionStatus":"54",
+    "missionId":"CQWT21041400193"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三条件条件委托查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四条件条件委托查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_22_H</t>
+  </si>
+  <si>
+    <t>TC_23_H</t>
+  </si>
+  <si>
+    <t>TC_24_H</t>
+  </si>
+  <si>
+    <t>TC_25_H</t>
+  </si>
+  <si>
+    <t>TC_26_H</t>
+  </si>
+  <si>
+    <t>{
+    "size":10,
+    "page":1,
+    "clientCompanyName":"成都刚贸有限责任公司",
+    "clientCompanyUserName":"邓江",
+    "missionStatus":"54",
+    "missionId":"CQWT21041400193",
+    "businessType":"RPT001_003"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五条件条件委托查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务分类条件不满足，查询为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_27_H</t>
+  </si>
+  <si>
+    <t>"total":1
+ "clientCompanyName":"成都刚贸有限责任公司"
+"clientCompanyUserName":"邓江"
+"missionStatus":"54"
+"missionId":"CQWT21041400193"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg": "success"
+"total":0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"clientCompanyName":"成都刚贸有限责任公司"
+"clientCompanyUserName":"邓江"
+浙江省-宁波市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"total":1
+"missionId":"CQWT21041400193",
+"clientCompanyName":"成都刚贸有限责任公司"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>execute_sheet</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_sender</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_receiver</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>13628165081@163.com</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>13628165081@163.com
+1048979584@qq.com</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3348,16 +3870,48 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="STXinwei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3370,8 +3924,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3420,6 +3980,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3429,7 +4004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3601,6 +4176,36 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3613,13 +4218,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3946,7 +4551,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>128</v>
@@ -3963,13 +4568,13 @@
     </row>
     <row r="2" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>127</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>134</v>
@@ -3980,7 +4585,7 @@
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>130</v>
@@ -3995,13 +4600,13 @@
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>135</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>134</v>
@@ -4010,7 +4615,7 @@
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>136</v>
@@ -4025,7 +4630,7 @@
     </row>
     <row r="6" spans="1:5" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>138</v>
@@ -4042,13 +4647,13 @@
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>139</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>271</v>
@@ -4057,25 +4662,25 @@
     </row>
     <row r="8" spans="1:5" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" ht="78.599999999999994" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>140</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>271</v>
@@ -4084,13 +4689,13 @@
     </row>
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>141</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>271</v>
@@ -4099,13 +4704,13 @@
     </row>
     <row r="11" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>269</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>271</v>
@@ -4116,82 +4721,82 @@
     </row>
     <row r="12" spans="1:5" ht="78" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>262</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>272</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>270</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>272</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>355</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="29" t="s">
+      <c r="C15" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>300</v>
-      </c>
       <c r="E15" s="31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>303</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E16" s="29"/>
     </row>
@@ -4203,12 +4808,12 @@
       <c r="E17" s="29"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
+      <c r="B24" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4225,10 +4830,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4519BB-0F1B-48FE-A874-447591F24465}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="A2" name="区域1"/>
+  </protectedRanges>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A2 A1:C1">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ADBD42EA-5701-4CD9-8D9F-4F6406E10FFE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F30C9CE0-1457-4CA2-8443-124C54E00E20}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ADBD42EA-5701-4CD9-8D9F-4F6406E10FFE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:A2 A1:C1</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B99FD8B-C9AA-44F8-9FDD-1170A2A22564}">
   <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
@@ -4274,7 +4966,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="I1" s="51" t="s">
         <v>10</v>
@@ -4283,10 +4975,10 @@
         <v>267</v>
       </c>
       <c r="K1" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="L1" s="54" t="s">
         <v>310</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>311</v>
       </c>
       <c r="M1" s="55"/>
       <c r="N1" s="10"/>
@@ -4314,7 +5006,7 @@
         <v>265</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>3</v>
@@ -4323,10 +5015,10 @@
         <v>143</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>289</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>290</v>
       </c>
       <c r="M2" s="15"/>
     </row>
@@ -4351,7 +5043,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>3</v>
@@ -4361,7 +5053,7 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="36" x14ac:dyDescent="0.25">
@@ -7273,12 +7965,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59007430-32C8-4284-89F5-2CCE9E654009}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7289,10 +7981,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -7300,7 +7992,7 @@
         <v>286</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
@@ -7308,15 +8000,7 @@
         <v>287</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7326,7 +8010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05521200-A3EA-451E-B778-9C6773AAC342}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -7392,31 +8076,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1C8817-9EE0-407E-B8C8-1FD556AA7CDC}">
-  <dimension ref="A1:M159"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="62" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="62"/>
-    <col min="3" max="3" width="15.6640625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="40" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="62" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="41"/>
+    <col min="3" max="3" width="15.6640625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="64" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="61" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="41" customWidth="1"/>
     <col min="7" max="7" width="27.21875" style="40" customWidth="1"/>
-    <col min="8" max="8" width="45.6640625" style="62" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="62" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="58" customWidth="1"/>
     <col min="10" max="10" width="33.6640625" style="40" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="62" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="58" customWidth="1"/>
     <col min="12" max="12" width="21" style="40" customWidth="1"/>
-    <col min="13" max="13" width="14.21875" style="62" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="62"/>
+    <col min="13" max="13" width="14.21875" style="58" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -7429,11 +8113,11 @@
       <c r="C1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="62" t="s">
         <v>266</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F1" s="44" t="s">
         <v>1</v>
@@ -7451,64 +8135,64 @@
         <v>267</v>
       </c>
       <c r="K1" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="L1" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="M1" s="61"/>
-    </row>
-    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="35" t="s">
+      <c r="M1" s="57"/>
+    </row>
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="D2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>265</v>
+      <c r="H2" s="36" t="s">
+        <v>373</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="A3" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>13</v>
+      <c r="H3" s="36" t="s">
+        <v>374</v>
       </c>
       <c r="I3" s="35" t="s">
         <v>3</v>
@@ -7519,25 +8203,25 @@
       <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="35" t="s">
+      <c r="A4" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>26</v>
+      <c r="H4" s="36" t="s">
+        <v>375</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>3</v>
@@ -7548,53 +8232,53 @@
       <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="35" t="s">
+      <c r="A5" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>26</v>
+        <v>318</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>375</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="J5" s="36" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="A6" s="59" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="35" t="s">
-        <v>26</v>
+      <c r="H6" s="36" t="s">
+        <v>375</v>
       </c>
       <c r="I6" s="35" t="s">
         <v>3</v>
@@ -7605,144 +8289,144 @@
       <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="D7" s="36" t="s">
+      <c r="A7" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>18</v>
+      <c r="H7" s="36" t="s">
+        <v>416</v>
       </c>
       <c r="I7" s="35" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="K7" s="35"/>
+    </row>
+    <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>26</v>
+      <c r="H8" s="36" t="s">
+        <v>375</v>
       </c>
       <c r="I8" s="35" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="D9" s="36" t="s">
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="35" t="s">
+      <c r="D9" s="63" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="35" t="s">
-        <v>326</v>
+      <c r="H9" s="36" t="s">
+        <v>376</v>
       </c>
       <c r="I9" s="35" t="s">
         <v>3</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:13" ht="48" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="35" t="s">
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="H10" s="35" t="s">
-        <v>328</v>
+      <c r="H10" s="36" t="s">
+        <v>376</v>
       </c>
       <c r="I10" s="35" t="s">
         <v>3</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="35" t="s">
+      <c r="D11" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="37" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J11" s="36" t="s">
         <v>156</v>
@@ -7750,2007 +8434,2029 @@
       <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35" t="s">
+      <c r="A12" s="59" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="35" t="s">
+      <c r="D12" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>22</v>
+      <c r="H12" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>3</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K12" s="35"/>
     </row>
-    <row r="13" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="35" t="s">
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>31</v>
+        <v>361</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="I13" s="37" t="s">
         <v>3</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>147</v>
+        <v>417</v>
       </c>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="35" t="s">
+    <row r="14" spans="1:13" ht="84" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="I14" s="37" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:13" ht="48" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="35" t="s">
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="I15" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="I15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="36"/>
+      <c r="J15" s="36" t="s">
+        <v>367</v>
+      </c>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="35" t="s">
+    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="E16" s="60"/>
+      <c r="F16" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="I16" s="37" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="35" t="s">
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
+        <v>408</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="35" t="s">
         <v>361</v>
       </c>
+      <c r="H17" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>3</v>
+      </c>
       <c r="J17" s="36" t="s">
-        <v>149</v>
+        <v>377</v>
       </c>
       <c r="K17" s="35"/>
     </row>
-    <row r="18" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="35" t="s">
+    <row r="18" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="A18" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="I18" s="37" t="s">
         <v>3</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>149</v>
+        <v>378</v>
       </c>
       <c r="K18" s="35"/>
     </row>
-    <row r="19" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="35" t="s">
+    <row r="19" spans="1:11" ht="96" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="63" t="s">
+        <v>381</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="I19" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="I19" s="37" t="s">
         <v>3</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>257</v>
+        <v>383</v>
       </c>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="35" t="s">
+    <row r="20" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
+        <v>411</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" s="60"/>
+      <c r="F20" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="I20" s="37" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>256</v>
+        <v>386</v>
       </c>
       <c r="K20" s="35"/>
     </row>
-    <row r="21" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="35" t="s">
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" s="60"/>
+      <c r="F21" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="I21" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="I21" s="37" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>255</v>
+        <v>389</v>
       </c>
       <c r="K21" s="35"/>
     </row>
-    <row r="22" spans="1:11" ht="48" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="35" t="s">
+    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="E22" s="60"/>
+      <c r="F22" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="I22" s="37" t="s">
         <v>3</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>254</v>
+        <v>392</v>
       </c>
       <c r="K22" s="35"/>
     </row>
-    <row r="23" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="35" t="s">
+    <row r="23" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="E23" s="60"/>
+      <c r="F23" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>196</v>
+        <v>361</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>418</v>
       </c>
       <c r="I23" s="35" t="s">
         <v>3</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>253</v>
+        <v>444</v>
       </c>
       <c r="K23" s="35"/>
     </row>
-    <row r="24" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="35" t="s">
+    <row r="24" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="E24" s="60"/>
+      <c r="F24" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>200</v>
+        <v>361</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>419</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>144</v>
+        <v>422</v>
       </c>
       <c r="K24" s="35"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
+    <row r="25" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="E25" s="60"/>
+      <c r="F25" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>425</v>
+      </c>
       <c r="K25" s="35"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
+    <row r="26" spans="1:11" ht="96" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>426</v>
+      </c>
+      <c r="E26" s="60"/>
+      <c r="F26" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>443</v>
+      </c>
       <c r="K26" s="35"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
+    <row r="27" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
+        <v>436</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>428</v>
+      </c>
+      <c r="E27" s="60"/>
+      <c r="F27" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>441</v>
+      </c>
       <c r="K27" s="35"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="35"/>
+    <row r="28" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60" t="s">
+        <v>438</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>439</v>
+      </c>
+      <c r="E28" s="60"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>437</v>
+      </c>
       <c r="I28" s="35"/>
-      <c r="J28" s="36"/>
+      <c r="J28" s="36" t="s">
+        <v>442</v>
+      </c>
       <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="35"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="36"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
       <c r="J29" s="36"/>
-      <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="35"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="36"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
       <c r="J30" s="36"/>
-      <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="35"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="36"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
       <c r="J31" s="36"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="35"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="36"/>
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
       <c r="J32" s="36"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="35"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="36"/>
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="36"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="35"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="36"/>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="36"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="35"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="36"/>
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
       <c r="J35" s="36"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="35"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="36"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
       <c r="J36" s="36"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="35"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="36"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
       <c r="J37" s="36"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="35"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="36"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
       <c r="J38" s="36"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="35"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="59"/>
       <c r="G39" s="36"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="36"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="35"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="36"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
       <c r="J40" s="36"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="35"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="59"/>
       <c r="G41" s="36"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
       <c r="J41" s="36"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="35"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="59"/>
       <c r="G42" s="36"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="35"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="59"/>
       <c r="G43" s="36"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
       <c r="J43" s="36"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="35"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="59"/>
       <c r="G44" s="36"/>
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
       <c r="J44" s="36"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="35"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="59"/>
       <c r="G45" s="36"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
       <c r="J45" s="36"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="35"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="59"/>
       <c r="G46" s="36"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
       <c r="J46" s="36"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="35"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="59"/>
       <c r="G47" s="36"/>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
       <c r="J47" s="36"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="35"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="59"/>
       <c r="G48" s="36"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
       <c r="J48" s="36"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="35"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="59"/>
       <c r="G49" s="36"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
       <c r="J49" s="36"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="35"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="59"/>
       <c r="G50" s="36"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="36"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="35"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="59"/>
       <c r="G51" s="36"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
       <c r="J51" s="36"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="35"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="59"/>
       <c r="G52" s="36"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
       <c r="J52" s="36"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="35"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="59"/>
       <c r="G53" s="36"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
       <c r="J53" s="36"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="35"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="59"/>
       <c r="G54" s="36"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
       <c r="J54" s="36"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="35"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="59"/>
       <c r="G55" s="36"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
       <c r="J55" s="36"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="35"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="59"/>
       <c r="G56" s="36"/>
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
       <c r="J56" s="36"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="35"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="59"/>
       <c r="G57" s="36"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="36"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="35"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="59"/>
       <c r="G58" s="36"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
       <c r="J58" s="36"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="35"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="59"/>
       <c r="G59" s="36"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
       <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="35"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="59"/>
       <c r="G60" s="36"/>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
       <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="35"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="59"/>
       <c r="G61" s="36"/>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
       <c r="J61" s="36"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="35"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="59"/>
       <c r="G62" s="36"/>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
       <c r="J62" s="36"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="35"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="59"/>
       <c r="G63" s="36"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
       <c r="J63" s="36"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="35"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="59"/>
       <c r="G64" s="36"/>
       <c r="H64" s="35"/>
       <c r="I64" s="35"/>
       <c r="J64" s="36"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="35"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="59"/>
       <c r="G65" s="36"/>
       <c r="H65" s="35"/>
       <c r="I65" s="35"/>
       <c r="J65" s="36"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="35"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="59"/>
       <c r="G66" s="36"/>
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
       <c r="J66" s="36"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="35"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="59"/>
       <c r="G67" s="36"/>
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
       <c r="J67" s="36"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="35"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="59"/>
       <c r="G68" s="36"/>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="36"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="35"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="59"/>
       <c r="G69" s="36"/>
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
       <c r="J69" s="36"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="35"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="59"/>
       <c r="G70" s="36"/>
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
       <c r="J70" s="36"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="35"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="59"/>
       <c r="G71" s="36"/>
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
       <c r="J71" s="36"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="35"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="59"/>
       <c r="G72" s="36"/>
       <c r="H72" s="35"/>
       <c r="I72" s="35"/>
       <c r="J72" s="36"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="35"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="59"/>
       <c r="G73" s="36"/>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
       <c r="J73" s="36"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="35"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="59"/>
       <c r="G74" s="36"/>
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
       <c r="J74" s="36"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="35"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="59"/>
       <c r="G75" s="36"/>
       <c r="H75" s="35"/>
       <c r="I75" s="35"/>
       <c r="J75" s="36"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="35"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="59"/>
       <c r="G76" s="36"/>
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
       <c r="J76" s="36"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="35"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="59"/>
       <c r="G77" s="36"/>
       <c r="H77" s="35"/>
       <c r="I77" s="35"/>
       <c r="J77" s="36"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="35"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="59"/>
       <c r="G78" s="36"/>
       <c r="H78" s="35"/>
       <c r="I78" s="35"/>
       <c r="J78" s="36"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="35"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="59"/>
       <c r="G79" s="36"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
       <c r="J79" s="36"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="35"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="59"/>
       <c r="G80" s="36"/>
       <c r="H80" s="35"/>
       <c r="I80" s="35"/>
       <c r="J80" s="36"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="35"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="59"/>
       <c r="G81" s="36"/>
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
       <c r="J81" s="36"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="35"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="59"/>
       <c r="G82" s="36"/>
       <c r="H82" s="35"/>
       <c r="I82" s="35"/>
       <c r="J82" s="36"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="35"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="59"/>
       <c r="G83" s="36"/>
       <c r="H83" s="35"/>
       <c r="I83" s="35"/>
       <c r="J83" s="36"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="35"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="59"/>
       <c r="G84" s="36"/>
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
       <c r="J84" s="36"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="35"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="59"/>
       <c r="G85" s="36"/>
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
       <c r="J85" s="36"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="35"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="59"/>
       <c r="G86" s="36"/>
       <c r="H86" s="35"/>
       <c r="I86" s="35"/>
       <c r="J86" s="36"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="35"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="59"/>
       <c r="G87" s="36"/>
       <c r="H87" s="35"/>
       <c r="I87" s="35"/>
       <c r="J87" s="36"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="35"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="59"/>
       <c r="G88" s="36"/>
       <c r="H88" s="35"/>
       <c r="I88" s="35"/>
       <c r="J88" s="36"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="35"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="59"/>
       <c r="G89" s="36"/>
       <c r="H89" s="35"/>
       <c r="I89" s="35"/>
       <c r="J89" s="36"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="35"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="59"/>
       <c r="G90" s="36"/>
       <c r="H90" s="35"/>
       <c r="I90" s="35"/>
       <c r="J90" s="36"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="35"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="59"/>
       <c r="G91" s="36"/>
       <c r="H91" s="35"/>
       <c r="I91" s="35"/>
       <c r="J91" s="36"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="35"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="59"/>
       <c r="G92" s="36"/>
       <c r="H92" s="35"/>
       <c r="I92" s="35"/>
       <c r="J92" s="36"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="35"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="59"/>
       <c r="G93" s="36"/>
       <c r="H93" s="35"/>
       <c r="I93" s="35"/>
       <c r="J93" s="36"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="35"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="59"/>
       <c r="G94" s="36"/>
       <c r="H94" s="35"/>
       <c r="I94" s="35"/>
       <c r="J94" s="36"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="35"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="59"/>
       <c r="G95" s="36"/>
       <c r="H95" s="35"/>
       <c r="I95" s="35"/>
       <c r="J95" s="36"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="35"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="35"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="59"/>
       <c r="G96" s="36"/>
       <c r="H96" s="35"/>
       <c r="I96" s="35"/>
       <c r="J96" s="36"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="35"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="59"/>
       <c r="G97" s="36"/>
       <c r="H97" s="35"/>
       <c r="I97" s="35"/>
       <c r="J97" s="36"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="35"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="35"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="59"/>
       <c r="G98" s="36"/>
       <c r="H98" s="35"/>
       <c r="I98" s="35"/>
       <c r="J98" s="36"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="35"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="59"/>
       <c r="G99" s="36"/>
       <c r="H99" s="35"/>
       <c r="I99" s="35"/>
       <c r="J99" s="36"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="35"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="35"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="59"/>
       <c r="G100" s="36"/>
       <c r="H100" s="35"/>
       <c r="I100" s="35"/>
       <c r="J100" s="36"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="35"/>
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="35"/>
+      <c r="A101" s="59"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="59"/>
       <c r="G101" s="36"/>
       <c r="H101" s="35"/>
       <c r="I101" s="35"/>
       <c r="J101" s="36"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="35"/>
-      <c r="B102" s="35"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="36"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="35"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="59"/>
       <c r="G102" s="36"/>
       <c r="H102" s="35"/>
       <c r="I102" s="35"/>
       <c r="J102" s="36"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="35"/>
+      <c r="A103" s="59"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="59"/>
       <c r="G103" s="36"/>
       <c r="H103" s="35"/>
       <c r="I103" s="35"/>
       <c r="J103" s="36"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="35"/>
-      <c r="B104" s="35"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="35"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="59"/>
       <c r="G104" s="36"/>
       <c r="H104" s="35"/>
       <c r="I104" s="35"/>
       <c r="J104" s="36"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="35"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="35"/>
+      <c r="A105" s="59"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="59"/>
       <c r="G105" s="36"/>
       <c r="H105" s="35"/>
       <c r="I105" s="35"/>
       <c r="J105" s="36"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="35"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="59"/>
       <c r="G106" s="36"/>
       <c r="H106" s="35"/>
       <c r="I106" s="35"/>
       <c r="J106" s="36"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="35"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="59"/>
       <c r="G107" s="36"/>
       <c r="H107" s="35"/>
       <c r="I107" s="35"/>
       <c r="J107" s="36"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="35"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="59"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="59"/>
       <c r="G108" s="36"/>
       <c r="H108" s="35"/>
       <c r="I108" s="35"/>
       <c r="J108" s="36"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="35"/>
-      <c r="B109" s="35"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="35"/>
+      <c r="A109" s="59"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="59"/>
       <c r="G109" s="36"/>
       <c r="H109" s="35"/>
       <c r="I109" s="35"/>
       <c r="J109" s="36"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
-      <c r="B110" s="35"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="35"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="59"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="59"/>
       <c r="G110" s="36"/>
       <c r="H110" s="35"/>
       <c r="I110" s="35"/>
       <c r="J110" s="36"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="35"/>
+      <c r="A111" s="59"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="59"/>
       <c r="G111" s="36"/>
       <c r="H111" s="35"/>
       <c r="I111" s="35"/>
       <c r="J111" s="36"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="35"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="59"/>
       <c r="G112" s="36"/>
       <c r="H112" s="35"/>
       <c r="I112" s="35"/>
       <c r="J112" s="36"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="35"/>
+      <c r="A113" s="59"/>
+      <c r="B113" s="59"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="59"/>
       <c r="G113" s="36"/>
       <c r="H113" s="35"/>
       <c r="I113" s="35"/>
       <c r="J113" s="36"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
-      <c r="B114" s="35"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="35"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="59"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="59"/>
       <c r="G114" s="36"/>
       <c r="H114" s="35"/>
       <c r="I114" s="35"/>
       <c r="J114" s="36"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="35"/>
-      <c r="B115" s="35"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="35"/>
+      <c r="A115" s="59"/>
+      <c r="B115" s="59"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="59"/>
       <c r="G115" s="36"/>
       <c r="H115" s="35"/>
       <c r="I115" s="35"/>
       <c r="J115" s="36"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="35"/>
-      <c r="B116" s="35"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="35"/>
+      <c r="A116" s="59"/>
+      <c r="B116" s="59"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="63"/>
+      <c r="E116" s="60"/>
+      <c r="F116" s="59"/>
       <c r="G116" s="36"/>
       <c r="H116" s="35"/>
       <c r="I116" s="35"/>
       <c r="J116" s="36"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="35"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="35"/>
+      <c r="A117" s="59"/>
+      <c r="B117" s="59"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="63"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="59"/>
       <c r="G117" s="36"/>
       <c r="H117" s="35"/>
       <c r="I117" s="35"/>
       <c r="J117" s="36"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="35"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="35"/>
+      <c r="A118" s="59"/>
+      <c r="B118" s="59"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="60"/>
+      <c r="F118" s="59"/>
       <c r="G118" s="36"/>
       <c r="H118" s="35"/>
       <c r="I118" s="35"/>
       <c r="J118" s="36"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="35"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="35"/>
+      <c r="A119" s="59"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="63"/>
+      <c r="E119" s="60"/>
+      <c r="F119" s="59"/>
       <c r="G119" s="36"/>
       <c r="H119" s="35"/>
       <c r="I119" s="35"/>
       <c r="J119" s="36"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="35"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="35"/>
+      <c r="A120" s="59"/>
+      <c r="B120" s="59"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="63"/>
+      <c r="E120" s="60"/>
+      <c r="F120" s="59"/>
       <c r="G120" s="36"/>
       <c r="H120" s="35"/>
       <c r="I120" s="35"/>
       <c r="J120" s="36"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="35"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="35"/>
+      <c r="A121" s="59"/>
+      <c r="B121" s="59"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="63"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="59"/>
       <c r="G121" s="36"/>
       <c r="H121" s="35"/>
       <c r="I121" s="35"/>
       <c r="J121" s="36"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="35"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="35"/>
+      <c r="A122" s="59"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="60"/>
+      <c r="F122" s="59"/>
       <c r="G122" s="36"/>
       <c r="H122" s="35"/>
       <c r="I122" s="35"/>
       <c r="J122" s="36"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="35"/>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="35"/>
+      <c r="A123" s="59"/>
+      <c r="B123" s="59"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="63"/>
+      <c r="E123" s="60"/>
+      <c r="F123" s="59"/>
       <c r="G123" s="36"/>
       <c r="H123" s="35"/>
       <c r="I123" s="35"/>
       <c r="J123" s="36"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="35"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="35"/>
+      <c r="A124" s="59"/>
+      <c r="B124" s="59"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="63"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="59"/>
       <c r="G124" s="36"/>
       <c r="H124" s="35"/>
       <c r="I124" s="35"/>
       <c r="J124" s="36"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="35"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="35"/>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="35"/>
+      <c r="A125" s="59"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="59"/>
+      <c r="D125" s="63"/>
+      <c r="E125" s="60"/>
+      <c r="F125" s="59"/>
       <c r="G125" s="36"/>
       <c r="H125" s="35"/>
       <c r="I125" s="35"/>
       <c r="J125" s="36"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="35"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="35"/>
+      <c r="A126" s="59"/>
+      <c r="B126" s="59"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="63"/>
+      <c r="E126" s="60"/>
+      <c r="F126" s="59"/>
       <c r="G126" s="36"/>
       <c r="H126" s="35"/>
       <c r="I126" s="35"/>
       <c r="J126" s="36"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="35"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="35"/>
+      <c r="A127" s="59"/>
+      <c r="B127" s="59"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="63"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="59"/>
       <c r="G127" s="36"/>
       <c r="H127" s="35"/>
       <c r="I127" s="35"/>
       <c r="J127" s="36"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="35"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="35"/>
+      <c r="A128" s="59"/>
+      <c r="B128" s="59"/>
+      <c r="C128" s="59"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="60"/>
+      <c r="F128" s="59"/>
       <c r="G128" s="36"/>
       <c r="H128" s="35"/>
       <c r="I128" s="35"/>
       <c r="J128" s="36"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="35"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="35"/>
+      <c r="A129" s="59"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="59"/>
       <c r="G129" s="36"/>
       <c r="H129" s="35"/>
       <c r="I129" s="35"/>
       <c r="J129" s="36"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="36"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="35"/>
+      <c r="A130" s="59"/>
+      <c r="B130" s="59"/>
+      <c r="C130" s="59"/>
+      <c r="D130" s="63"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="59"/>
       <c r="G130" s="36"/>
       <c r="H130" s="35"/>
       <c r="I130" s="35"/>
       <c r="J130" s="36"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="35"/>
-      <c r="D131" s="36"/>
-      <c r="E131" s="36"/>
-      <c r="F131" s="35"/>
+      <c r="A131" s="59"/>
+      <c r="B131" s="59"/>
+      <c r="C131" s="59"/>
+      <c r="D131" s="63"/>
+      <c r="E131" s="60"/>
+      <c r="F131" s="59"/>
       <c r="G131" s="36"/>
       <c r="H131" s="35"/>
       <c r="I131" s="35"/>
       <c r="J131" s="36"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
-      <c r="F132" s="35"/>
+      <c r="A132" s="59"/>
+      <c r="B132" s="59"/>
+      <c r="C132" s="59"/>
+      <c r="D132" s="63"/>
+      <c r="E132" s="60"/>
+      <c r="F132" s="59"/>
       <c r="G132" s="36"/>
       <c r="H132" s="35"/>
       <c r="I132" s="35"/>
       <c r="J132" s="36"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="35"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="35"/>
+      <c r="A133" s="59"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="60"/>
+      <c r="F133" s="59"/>
       <c r="G133" s="36"/>
       <c r="H133" s="35"/>
       <c r="I133" s="35"/>
       <c r="J133" s="36"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="35"/>
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="35"/>
+      <c r="A134" s="59"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="59"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="60"/>
+      <c r="F134" s="59"/>
       <c r="G134" s="36"/>
       <c r="H134" s="35"/>
       <c r="I134" s="35"/>
       <c r="J134" s="36"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="35"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="35"/>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="35"/>
+      <c r="A135" s="59"/>
+      <c r="B135" s="59"/>
+      <c r="C135" s="59"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="60"/>
+      <c r="F135" s="59"/>
       <c r="G135" s="36"/>
       <c r="H135" s="35"/>
       <c r="I135" s="35"/>
       <c r="J135" s="36"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="35"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="35"/>
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="35"/>
+      <c r="A136" s="59"/>
+      <c r="B136" s="59"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="60"/>
+      <c r="F136" s="59"/>
       <c r="G136" s="36"/>
       <c r="H136" s="35"/>
       <c r="I136" s="35"/>
       <c r="J136" s="36"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="35"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="35"/>
+      <c r="A137" s="59"/>
+      <c r="B137" s="59"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="60"/>
+      <c r="F137" s="59"/>
       <c r="G137" s="36"/>
       <c r="H137" s="35"/>
       <c r="I137" s="35"/>
       <c r="J137" s="36"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="35"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="35"/>
-      <c r="D138" s="36"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="35"/>
+      <c r="A138" s="59"/>
+      <c r="B138" s="59"/>
+      <c r="C138" s="59"/>
+      <c r="D138" s="63"/>
+      <c r="E138" s="60"/>
+      <c r="F138" s="59"/>
       <c r="G138" s="36"/>
       <c r="H138" s="35"/>
       <c r="I138" s="35"/>
       <c r="J138" s="36"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="36"/>
-      <c r="E139" s="36"/>
-      <c r="F139" s="35"/>
+      <c r="A139" s="59"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="59"/>
+      <c r="D139" s="63"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="59"/>
       <c r="G139" s="36"/>
       <c r="H139" s="35"/>
       <c r="I139" s="35"/>
       <c r="J139" s="36"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="35"/>
+      <c r="A140" s="59"/>
+      <c r="B140" s="59"/>
+      <c r="C140" s="59"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="59"/>
       <c r="G140" s="36"/>
       <c r="H140" s="35"/>
       <c r="I140" s="35"/>
       <c r="J140" s="36"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="35"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="36"/>
-      <c r="E141" s="36"/>
-      <c r="F141" s="35"/>
+      <c r="A141" s="59"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="63"/>
+      <c r="E141" s="60"/>
+      <c r="F141" s="59"/>
       <c r="G141" s="36"/>
       <c r="H141" s="35"/>
       <c r="I141" s="35"/>
       <c r="J141" s="36"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="35"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="36"/>
-      <c r="E142" s="36"/>
-      <c r="F142" s="35"/>
+      <c r="A142" s="59"/>
+      <c r="B142" s="59"/>
+      <c r="C142" s="59"/>
+      <c r="D142" s="63"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="59"/>
       <c r="G142" s="36"/>
       <c r="H142" s="35"/>
       <c r="I142" s="35"/>
       <c r="J142" s="36"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="35"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="35"/>
-      <c r="D143" s="36"/>
-      <c r="E143" s="36"/>
-      <c r="F143" s="35"/>
+      <c r="A143" s="59"/>
+      <c r="B143" s="59"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="60"/>
+      <c r="F143" s="59"/>
       <c r="G143" s="36"/>
       <c r="H143" s="35"/>
       <c r="I143" s="35"/>
       <c r="J143" s="36"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="35"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="35"/>
-      <c r="D144" s="36"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="35"/>
+      <c r="A144" s="59"/>
+      <c r="B144" s="59"/>
+      <c r="C144" s="59"/>
+      <c r="D144" s="63"/>
+      <c r="E144" s="60"/>
+      <c r="F144" s="59"/>
       <c r="G144" s="36"/>
       <c r="H144" s="35"/>
       <c r="I144" s="35"/>
       <c r="J144" s="36"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="35"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="36"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="35"/>
+      <c r="A145" s="59"/>
+      <c r="B145" s="59"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="63"/>
+      <c r="E145" s="60"/>
+      <c r="F145" s="59"/>
       <c r="G145" s="36"/>
       <c r="H145" s="35"/>
       <c r="I145" s="35"/>
       <c r="J145" s="36"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="35"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="36"/>
-      <c r="E146" s="36"/>
-      <c r="F146" s="35"/>
+      <c r="A146" s="59"/>
+      <c r="B146" s="59"/>
+      <c r="C146" s="59"/>
+      <c r="D146" s="63"/>
+      <c r="E146" s="60"/>
+      <c r="F146" s="59"/>
       <c r="G146" s="36"/>
       <c r="H146" s="35"/>
       <c r="I146" s="35"/>
       <c r="J146" s="36"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="35"/>
-      <c r="B147" s="35"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="36"/>
-      <c r="E147" s="36"/>
-      <c r="F147" s="35"/>
+      <c r="A147" s="59"/>
+      <c r="B147" s="59"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="63"/>
+      <c r="E147" s="60"/>
+      <c r="F147" s="59"/>
       <c r="G147" s="36"/>
       <c r="H147" s="35"/>
       <c r="I147" s="35"/>
       <c r="J147" s="36"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="35"/>
-      <c r="B148" s="35"/>
-      <c r="C148" s="35"/>
-      <c r="D148" s="36"/>
-      <c r="E148" s="36"/>
-      <c r="F148" s="35"/>
+      <c r="A148" s="59"/>
+      <c r="B148" s="59"/>
+      <c r="C148" s="59"/>
+      <c r="D148" s="63"/>
+      <c r="E148" s="60"/>
+      <c r="F148" s="59"/>
       <c r="G148" s="36"/>
       <c r="H148" s="35"/>
       <c r="I148" s="35"/>
       <c r="J148" s="36"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="35"/>
-      <c r="B149" s="35"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="36"/>
-      <c r="E149" s="36"/>
-      <c r="F149" s="35"/>
+      <c r="A149" s="59"/>
+      <c r="B149" s="59"/>
+      <c r="C149" s="59"/>
+      <c r="D149" s="63"/>
+      <c r="E149" s="60"/>
+      <c r="F149" s="59"/>
       <c r="G149" s="36"/>
       <c r="H149" s="35"/>
       <c r="I149" s="35"/>
       <c r="J149" s="36"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="35"/>
-      <c r="B150" s="35"/>
-      <c r="C150" s="35"/>
-      <c r="D150" s="36"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="35"/>
+      <c r="A150" s="59"/>
+      <c r="B150" s="59"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="63"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="59"/>
       <c r="G150" s="36"/>
       <c r="H150" s="35"/>
       <c r="I150" s="35"/>
       <c r="J150" s="36"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="35"/>
-      <c r="B151" s="35"/>
-      <c r="C151" s="35"/>
-      <c r="D151" s="36"/>
-      <c r="E151" s="36"/>
-      <c r="F151" s="35"/>
+      <c r="A151" s="59"/>
+      <c r="B151" s="59"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="63"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="59"/>
       <c r="G151" s="36"/>
       <c r="H151" s="35"/>
       <c r="I151" s="35"/>
       <c r="J151" s="36"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="35"/>
-      <c r="B152" s="35"/>
-      <c r="C152" s="35"/>
-      <c r="D152" s="36"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="35"/>
+      <c r="A152" s="59"/>
+      <c r="B152" s="59"/>
+      <c r="C152" s="59"/>
+      <c r="D152" s="63"/>
+      <c r="E152" s="60"/>
+      <c r="F152" s="59"/>
       <c r="G152" s="36"/>
       <c r="H152" s="35"/>
       <c r="I152" s="35"/>
       <c r="J152" s="36"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="35"/>
-      <c r="B153" s="35"/>
-      <c r="C153" s="35"/>
-      <c r="D153" s="36"/>
-      <c r="E153" s="36"/>
-      <c r="F153" s="35"/>
+      <c r="A153" s="59"/>
+      <c r="B153" s="59"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="63"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="59"/>
       <c r="G153" s="36"/>
       <c r="H153" s="35"/>
       <c r="I153" s="35"/>
       <c r="J153" s="36"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="35"/>
-      <c r="B154" s="35"/>
-      <c r="C154" s="35"/>
-      <c r="D154" s="36"/>
-      <c r="E154" s="36"/>
-      <c r="F154" s="35"/>
+      <c r="A154" s="59"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="63"/>
+      <c r="E154" s="60"/>
+      <c r="F154" s="59"/>
       <c r="G154" s="36"/>
       <c r="H154" s="35"/>
       <c r="I154" s="35"/>
       <c r="J154" s="36"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="35"/>
-      <c r="B155" s="35"/>
-      <c r="C155" s="35"/>
-      <c r="D155" s="36"/>
-      <c r="E155" s="36"/>
-      <c r="F155" s="35"/>
+      <c r="A155" s="59"/>
+      <c r="B155" s="59"/>
+      <c r="C155" s="59"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="60"/>
+      <c r="F155" s="59"/>
       <c r="G155" s="36"/>
       <c r="H155" s="35"/>
       <c r="I155" s="35"/>
       <c r="J155" s="36"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="35"/>
-      <c r="B156" s="35"/>
-      <c r="C156" s="35"/>
-      <c r="D156" s="36"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="35"/>
+      <c r="A156" s="59"/>
+      <c r="B156" s="59"/>
+      <c r="C156" s="59"/>
+      <c r="D156" s="63"/>
+      <c r="E156" s="60"/>
+      <c r="F156" s="59"/>
       <c r="G156" s="36"/>
       <c r="H156" s="35"/>
       <c r="I156" s="35"/>
       <c r="J156" s="36"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="35"/>
-      <c r="B157" s="35"/>
-      <c r="C157" s="35"/>
-      <c r="D157" s="36"/>
-      <c r="E157" s="36"/>
-      <c r="F157" s="35"/>
+      <c r="A157" s="59"/>
+      <c r="B157" s="59"/>
+      <c r="C157" s="59"/>
+      <c r="D157" s="63"/>
+      <c r="E157" s="60"/>
+      <c r="F157" s="59"/>
       <c r="G157" s="36"/>
       <c r="H157" s="35"/>
       <c r="I157" s="35"/>
       <c r="J157" s="36"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="35"/>
-      <c r="B158" s="35"/>
-      <c r="C158" s="35"/>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="35"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="35"/>
-      <c r="I158" s="35"/>
-      <c r="J158" s="36"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="35"/>
-      <c r="B159" s="35"/>
-      <c r="C159" s="35"/>
-      <c r="D159" s="36"/>
-      <c r="E159" s="36"/>
-      <c r="F159" s="35"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="35"/>
-      <c r="I159" s="35"/>
-      <c r="J159" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9759,32 +10465,25 @@
     <hyperlink ref="G11" r:id="rId2" xr:uid="{6F25FDD5-6BEE-49D0-A752-1E119EB3744C}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{BCFFC87F-7C69-4984-BD44-2996D651B447}"/>
     <hyperlink ref="G6" r:id="rId4" xr:uid="{F517E910-FEDF-4247-BB19-48272E5EB460}"/>
-    <hyperlink ref="G13" r:id="rId5" xr:uid="{56283450-71DB-4BCD-9584-0D47CB6AB9B7}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{920EDBB0-BDA1-44FC-8C76-028E5AB7A911}"/>
-    <hyperlink ref="G15" r:id="rId7" xr:uid="{278B6D40-7FBA-49A7-B2AE-BDBD59F1BA78}"/>
-    <hyperlink ref="G16" r:id="rId8" xr:uid="{B2AAAE77-C320-46A3-AFA5-F6DDCCFC2440}"/>
-    <hyperlink ref="G17" r:id="rId9" xr:uid="{73C2E7FD-68B0-4E76-A074-99DE152960C3}"/>
-    <hyperlink ref="G18" r:id="rId10" xr:uid="{20AE430D-4485-46DA-BF75-FA7D4876E5E0}"/>
-    <hyperlink ref="G19" r:id="rId11" xr:uid="{60168B5E-3D38-4DB2-AC7B-82AE2BCCF9E5}"/>
-    <hyperlink ref="G20" r:id="rId12" xr:uid="{08B85ECD-57DF-4063-9460-DEF1D0AFA7D7}"/>
-    <hyperlink ref="G21" r:id="rId13" xr:uid="{578600B0-DD8C-46AC-86B1-DFC76A33816D}"/>
-    <hyperlink ref="G22" r:id="rId14" xr:uid="{B937B2D5-3D87-4966-99D3-9118F063F005}"/>
-    <hyperlink ref="G23" r:id="rId15" xr:uid="{9FEEFC32-DA14-42D8-B028-D892D2DD56B0}"/>
-    <hyperlink ref="G24" r:id="rId16" xr:uid="{C9685178-EEDF-4510-B1BB-547B02C38E9F}"/>
-    <hyperlink ref="G5" r:id="rId17" xr:uid="{842EC3B4-CF60-4235-9CEE-E3D12F8CCCCD}"/>
-    <hyperlink ref="G7" r:id="rId18" xr:uid="{C4891793-B8B6-4032-BD45-E01144C084CE}"/>
-    <hyperlink ref="G8" r:id="rId19" xr:uid="{AE31F41B-4A77-4227-892C-2DDCEF1348B4}"/>
-    <hyperlink ref="G9" r:id="rId20" xr:uid="{8AC09EE9-F7F7-41B1-BD01-C9C291021497}"/>
-    <hyperlink ref="G10" r:id="rId21" xr:uid="{4E246429-41DF-4AD5-AAC0-9DB23B91B245}"/>
-    <hyperlink ref="G12" r:id="rId22" xr:uid="{480881E3-AEF4-4E9C-B83D-B5CF95F7EBD7}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{842EC3B4-CF60-4235-9CEE-E3D12F8CCCCD}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{C4891793-B8B6-4032-BD45-E01144C084CE}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{AE31F41B-4A77-4227-892C-2DDCEF1348B4}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{8AC09EE9-F7F7-41B1-BD01-C9C291021497}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{4E246429-41DF-4AD5-AAC0-9DB23B91B245}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{480881E3-AEF4-4E9C-B83D-B5CF95F7EBD7}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{5744BEDF-BABC-4835-9538-19C1CB978E7B}"/>
+    <hyperlink ref="G14:G22" r:id="rId12" display="https://test-web.wind56.com/wind56apis/operator/TspPtMissionM/selectByMap" xr:uid="{78554F62-6F7D-4829-AE95-631A561F75D5}"/>
+    <hyperlink ref="G23:G27" r:id="rId13" display="https://test-web.wind56.com/wind56apis/operator/TspPtMissionM/selectByMap" xr:uid="{B68DD6C2-462A-4D62-9CCE-1FB941D9A18F}"/>
+    <hyperlink ref="G27" r:id="rId14" xr:uid="{00FC78B4-38A1-4BC3-B276-F67272211B17}"/>
+    <hyperlink ref="G28" r:id="rId15" xr:uid="{C35FEADA-4F15-4AC4-AA46-B0D594346F5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
-  <legacyDrawing r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <legacyDrawing r:id="rId17"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6BE68E-1906-4CA6-A391-554E13D68D7F}">
   <dimension ref="A1:M27"/>
   <sheetViews>
@@ -9830,7 +10529,7 @@
         <v>268</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H1" s="44" t="s">
         <v>2</v>
@@ -9842,10 +10541,10 @@
         <v>267</v>
       </c>
       <c r="K1" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="L1" s="46" t="s">
         <v>310</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>311</v>
       </c>
       <c r="M1" s="47"/>
     </row>
@@ -9857,22 +10556,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>3</v>
@@ -9881,49 +10580,49 @@
         <v>144</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="I3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
